--- a/Traza_Requisitos.xlsx
+++ b/Traza_Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dapin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC5AF12-1174-4BE5-B4E5-4CC71A8ACFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A922E4A-ABFA-43AD-89AA-1699AC8CC041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="624" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{85D6C990-C6F5-403A-B356-7BAA2D13CFFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{85D6C990-C6F5-403A-B356-7BAA2D13CFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="BDD" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="146">
   <si>
     <r>
       <t>1-</t>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2490C30-41D2-4828-8EC2-A93B17F062DD}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,9 +1331,15 @@
       <c r="B3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,8 +1349,12 @@
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
@@ -1355,9 +1365,15 @@
       <c r="B5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1367,8 +1383,12 @@
       <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
@@ -1391,9 +1411,15 @@
       <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1403,8 +1429,12 @@
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
@@ -1415,9 +1445,15 @@
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,9 +1463,15 @@
       <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,9 +1481,15 @@
       <c r="B12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,9 +1511,15 @@
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1475,9 +1529,15 @@
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,9 +1547,13 @@
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1499,8 +1563,12 @@
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
@@ -1535,9 +1603,13 @@
       <c r="B20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,9 +1643,15 @@
       <c r="B23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,8 +1662,12 @@
         <v>99</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,9 +1696,15 @@
       <c r="B27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="C27" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1626,8 +1714,12 @@
       <c r="B28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
@@ -1638,8 +1730,12 @@
       <c r="B29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
@@ -1651,8 +1747,12 @@
         <v>103</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1674,8 +1774,12 @@
       <c r="B32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
@@ -1686,8 +1790,12 @@
       <c r="B33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
@@ -1710,9 +1818,15 @@
       <c r="B35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="C35" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1722,9 +1836,15 @@
       <c r="B36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1734,8 +1854,12 @@
       <c r="B37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
@@ -1746,9 +1870,13 @@
       <c r="B38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1794,9 +1922,13 @@
       <c r="B42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="E42" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1818,8 +1950,12 @@
       <c r="B44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="C44" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
     </row>
@@ -1842,9 +1978,15 @@
       <c r="B46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,8 +1997,12 @@
         <v>118</v>
       </c>
       <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1890,9 +2036,15 @@
       <c r="B50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="C50" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1902,9 +2054,15 @@
       <c r="B51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="C51" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,8 +2085,12 @@
         <v>1</v>
       </c>
       <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1938,8 +2100,12 @@
       <c r="B54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="C54" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
     </row>
@@ -1950,9 +2116,15 @@
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="C55" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,8 +2135,12 @@
         <v>124</v>
       </c>
       <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="D56" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1998,9 +2174,15 @@
       <c r="B59" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+      <c r="C59" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -2010,8 +2192,12 @@
       <c r="B60" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="C60" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
     </row>
@@ -2022,8 +2208,12 @@
       <c r="B61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="C61" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
     </row>
@@ -2047,8 +2237,12 @@
         <v>130</v>
       </c>
       <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+      <c r="D63" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2058,9 +2252,15 @@
       <c r="B64" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="C64" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,9 +2294,15 @@
       <c r="B67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+      <c r="C67" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2106,9 +2312,15 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="C68" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,9 +2330,15 @@
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
+      <c r="C69" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2130,9 +2348,15 @@
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
+      <c r="C70" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,8 +2379,12 @@
         <v>9</v>
       </c>
       <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
+      <c r="D72" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="F72" s="14"/>
     </row>
   </sheetData>
@@ -2169,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459967CF-694B-40CA-9E88-81F5856310A8}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
